--- a/medicine/Psychotrope/French_Connection_(cocktail)/French_Connection_(cocktail).xlsx
+++ b/medicine/Psychotrope/French_Connection_(cocktail)/French_Connection_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un French Connection est un cocktail officiel de l'IBA, à base de cognac et d'Amaretto[1],[2].
+Un French Connection est un cocktail officiel de l'IBA, à base de cognac et d'Amaretto,.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce cocktail franco-américain est dérivé du thème du film French Connection de 1971[3],[4], variante du cocktail Godfather, à base de scotch whisky et d'Amaretto (inspiré de la série de film Le Parrain de Francis Ford Coppola de 1972)[5],[6].
-IBA
-La recette de l'International Bartenders Association (IBA) est composée de[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce cocktail franco-américain est dérivé du thème du film French Connection de 1971 variante du cocktail Godfather, à base de scotch whisky et d'Amaretto (inspiré de la série de film Le Parrain de Francis Ford Coppola de 1972),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>French_Connection_(cocktail)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/French_Connection_(cocktail)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recette de l'International Bartenders Association (IBA) est composée de :
 35 ml de Cognac
 35 ml d'Amaretto
 Mélanger les ingrédients à la cuillère, avec des glaçons, et servir « on the rocks » (sur glaçons) dans un verre à cognac (ou dans un verre old fashioned).   
@@ -524,31 +573,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>French_Connection_(cocktail)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/French_Connection_(cocktail)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Godfather : scotch whisky et Amaretto
 Old fashioned : whisky, Angostura, sucre
@@ -556,31 +607,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>French_Connection_(cocktail)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/French_Connection_(cocktail)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1971 : French Connection, de William Friedkin.</t>
         </is>
